--- a/Assignment - AS-AIML-01 - Output File.xlsx
+++ b/Assignment - AS-AIML-01 - Output File.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="111">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>SNVSAA1B</t>
+    <t>ycneiciffE</t>
   </si>
   <si>
     <t>Regulator Function</t>
   </si>
   <si>
-    <t>NONSW switching</t>
+    <t>Temperature</t>
   </si>
   <si>
     <t>Input Voltage Range</t>
@@ -52,28 +52,31 @@
     <t>Maximum Output Current</t>
   </si>
   <si>
-    <t>500 mA</t>
+    <t>0.5 A</t>
   </si>
   <si>
     <t>Number of Outputs</t>
   </si>
   <si>
-    <t>3.5 65</t>
+    <t>7.3.6</t>
   </si>
   <si>
     <t>Mounting Type</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Package Type</t>
+  </si>
+  <si>
     <t>AddedR</t>
   </si>
   <si>
-    <t>Package Type</t>
-  </si>
-  <si>
     <t>Pin Count</t>
   </si>
   <si>
-    <t>16</t>
+    <t>29</t>
   </si>
   <si>
     <t>Output Type</t>
@@ -82,15 +85,12 @@
     <t>Maximum Switching Frequency</t>
   </si>
   <si>
-    <t>500-kHz</t>
+    <t>500 kHz</t>
   </si>
   <si>
     <t>Efficiency</t>
   </si>
   <si>
-    <t>110% 113%</t>
-  </si>
-  <si>
     <t>Operating Temperature Range</t>
   </si>
   <si>
@@ -107,15 +107,18 @@
   </si>
   <si>
     <t>Minimum Output Voltage</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>Minimum Input Voltage</t>
   </si>
   <si>
     <t>±2000
 V</t>
   </si>
   <si>
-    <t>Minimum Input Voltage</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
@@ -143,50 +146,55 @@
     <t>Maximum Output Voltage</t>
   </si>
   <si>
+    <t>60-V</t>
+  </si>
+  <si>
     <t>LM46001QPWPTQ1</t>
   </si>
   <si>
-    <t>SNVSAA3B</t>
-  </si>
-  <si>
-    <t>Feedbacksenseinputpin</t>
-  </si>
-  <si>
-    <t>3.5-V to 60-V</t>
+    <t>ProductFolderLinks</t>
   </si>
   <si>
     <t>1 A</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ProductFolderLinks</t>
-  </si>
-  <si>
-    <t>Short-CircuitProtectionwithHiccupMode</t>
+    <t>7.3.7</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1MHz</t>
+  </si>
+  <si>
+    <t>1.016 V</t>
   </si>
   <si>
     <t>LM46002QPWPTQ1</t>
   </si>
   <si>
-    <t>VINPINS</t>
-  </si>
-  <si>
-    <t>switching</t>
-  </si>
-  <si>
-    <t>1.5V 7 12 µA</t>
-  </si>
-  <si>
-    <t>0
+    <t>ShutdownCurrentvsJunctionTemperature</t>
+  </si>
+  <si>
+    <t>2 A</t>
+  </si>
+  <si>
+    <t>20
+10
+0
 0 200 400 600 800 1000</t>
   </si>
   <si>
-    <t>StableWithAlmostAnyCombinationofCeramic</t>
-  </si>
-  <si>
-    <t>16PINS</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>7.4.4</t>
+  </si>
+  <si>
+    <t>Aµ</t>
+  </si>
+  <si>
+    <t>2200 kHz</t>
   </si>
   <si>
     <t>±2000
@@ -196,7 +204,7 @@
     <t>High=ONandLow=OFF</t>
   </si>
   <si>
-    <t>6.6 mm × 5.1 mm × 1.2 mm</t>
+    <t>0.4 V</t>
   </si>
   <si>
     <t>36-V</t>
@@ -205,106 +213,130 @@
     <t>LM5165XDRCT</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>output voltage monitoring</t>
-  </si>
-  <si>
-    <t>5 V</t>
-  </si>
-  <si>
-    <t>1 V 100 nA</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>Pin-to-pin compatible</t>
-  </si>
-  <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>CurrentLimit</t>
+  </si>
+  <si>
+    <t>3-V to
+65-V</t>
+  </si>
+  <si>
+    <t>5 V or 3.3 V</t>
+  </si>
+  <si>
+    <t>240 mA</t>
+  </si>
+  <si>
+    <t>8.2.1.2.6</t>
+  </si>
+  <si>
+    <t>Sleep Sleep</t>
+  </si>
+  <si>
+    <t>7 EN
+R PGOOD</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>prebiased</t>
+  </si>
+  <si>
+    <t>220 kHz</t>
+  </si>
+  <si>
+    <t>±20%</t>
+  </si>
+  <si>
+    <t>–40°C to 150°C</t>
+  </si>
+  <si>
+    <t>Ω
+200 ce
+(
+n
+a 100
+st
+si
+150 e
+R
+wn 75</t>
+  </si>
+  <si>
+    <t>56.2 kΩ 100 120 145</t>
+  </si>
+  <si>
+    <t>22 µH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">–40°C </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 150°C</t>
+  </si>
+  <si>
+    <t>65-V</t>
+  </si>
+  <si>
+    <t>LM53600AQDSXTQ1</t>
+  </si>
+  <si>
+    <t>gnihctiwS</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>6 V to 18 V</t>
+  </si>
+  <si>
+    <t>3.3 V</t>
+  </si>
+  <si>
+    <t>SNAS660D</t>
+  </si>
+  <si>
+    <t>93
+91
+89
+87
+85
+83
+81
+79
+77
+75</t>
   </si>
   <si>
     <t>adjustable</t>
   </si>
   <si>
-    <t>65 V H
-90
-80 %</t>
-  </si>
-  <si>
-    <t>–40°C to 150°C</t>
-  </si>
-  <si>
-    <t>68
-F
-(cid:2)</t>
-  </si>
-  <si>
-    <t>56.2 kΩ 100 120 145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">–40°C </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 150°C</t>
-  </si>
-  <si>
-    <t>LM53600AQDSXTQ1</t>
-  </si>
-  <si>
-    <t>SNAS660D</t>
-  </si>
-  <si>
-    <t>SYNC/
-MODE BOOT</t>
-  </si>
-  <si>
-    <t>3.8 V to 36 V</t>
-  </si>
-  <si>
-    <t>3.55 V to 36 V</t>
-  </si>
-  <si>
-    <t>650 mA</t>
-  </si>
-  <si>
-    <t>1, 5, 6, and 10</t>
+    <t>PU
+100k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>2.1-MHz</t>
+  </si>
+  <si>
+    <t>97%</t>
   </si>
   <si>
     <t>3.00 mm x 3.00 mm</t>
   </si>
   <si>
-    <t>Product Folder</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>105% 106.5%</t>
-  </si>
-  <si>
-    <t>3.8 36 V
-5 V</t>
-  </si>
-  <si>
-    <t>18 V</t>
-  </si>
-  <si>
     <t>LM74610QDGKTQ1</t>
   </si>
   <si>
     <t>Vbatt</t>
   </si>
   <si>
-    <t>Temperature</t>
+    <t>Voltage Drain</t>
   </si>
   <si>
     <t>100
@@ -315,22 +347,35 @@
 50</t>
   </si>
   <si>
-    <t>6.6V</t>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>45 V</t>
+  </si>
+  <si>
+    <t>175
+150
+125
+100</t>
   </si>
   <si>
     <t>6.6</t>
   </si>
   <si>
-    <t>Maximumreversevoltageof45V</t>
+    <t>S D
+G</t>
+  </si>
+  <si>
+    <t>98%</t>
   </si>
   <si>
     <t>-40°Cto+125°C</t>
   </si>
   <si>
-    <t>0.55V</t>
-  </si>
-  <si>
-    <t>NC 3 6 Gate Drive</t>
+    <t>SNOSCZ1B–JULY2015–REVISEDJUNE2016</t>
+  </si>
+  <si>
+    <t>5V</t>
   </si>
   <si>
     <t>3.00mmx5.00mm</t>
@@ -1338,9 +1383,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="35.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="42.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="27.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1439,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1447,10 +1490,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1458,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1469,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1480,10 +1523,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1538,7 +1581,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1546,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -1557,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -1568,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1579,10 +1622,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1590,10 +1633,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1601,10 +1644,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1612,59 +1655,59 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1675,7 +1718,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -1686,73 +1729,73 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -1763,7 +1806,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -1774,7 +1817,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -1785,7 +1828,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
@@ -1796,21 +1839,21 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -1818,10 +1861,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -1829,10 +1872,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -1840,62 +1883,62 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
         <v>42</v>
       </c>
-      <c r="B49" t="s">
-        <v>41</v>
-      </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1906,29 +1949,29 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -1939,7 +1982,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
@@ -1950,18 +1993,18 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -1972,10 +2015,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
@@ -1983,40 +2026,40 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -2027,76 +2070,76 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
         <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -2104,838 +2147,838 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B81" t="s">
         <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s">
         <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
         <v>30</v>
       </c>
       <c r="C89" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B105" t="s">
         <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B110" t="s">
         <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B111" t="s">
         <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B112" t="s">
         <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
         <v>30</v>
       </c>
       <c r="C113" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B114" t="s">
         <v>32</v>
       </c>
       <c r="C114" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C115" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B129" t="s">
         <v>17</v>
       </c>
       <c r="C129" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C131" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C132" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C133" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
       </c>
       <c r="C134" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B135" t="s">
         <v>27</v>
       </c>
       <c r="C135" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B136" t="s">
         <v>29</v>
       </c>
       <c r="C136" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B137" t="s">
         <v>30</v>
       </c>
       <c r="C137" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B138" t="s">
         <v>32</v>
       </c>
       <c r="C138" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C139" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C140" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C144" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C145" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
